--- a/AutomationPractice.com/Test-cases/HomePage-test-cases.xlsx
+++ b/AutomationPractice.com/Test-cases/HomePage-test-cases.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAI\git\AutomationPractice.com\AutomationPractice.com\Test-cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="6135" tabRatio="366"/>
   </bookViews>
@@ -10,12 +15,11 @@
     <sheet name="Sample Test Case" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="102">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -305,6 +309,62 @@
   </si>
   <si>
     <t>NOT tested</t>
+  </si>
+  <si>
+    <t>Check for click on menu link navigate to proceed to check out page</t>
+  </si>
+  <si>
+    <t>TC_HOMEPAGE_
+008</t>
+  </si>
+  <si>
+    <t>7)click on add to basket</t>
+  </si>
+  <si>
+    <t>8)Added book is displayed in menu items link</t>
+  </si>
+  <si>
+    <t>9)Click on Menu Items Link</t>
+  </si>
+  <si>
+    <t>10) Check whether it is navigating to Proceed to checkout 
+page</t>
+  </si>
+  <si>
+    <t>Page Should navigate to Proceed to check out page</t>
+  </si>
+  <si>
+    <t>TC_HOMEPAGE_
+009</t>
+  </si>
+  <si>
+    <t>Check for Coupon KRISHNASAKINALA is applied</t>
+  </si>
+  <si>
+    <t>11)Enter coupon as 'KRISHNASAKINALA' and click on Apply coupon</t>
+  </si>
+  <si>
+    <t>12)Check whether coupon is applied</t>
+  </si>
+  <si>
+    <t>TC_HOMEPAGE_
+010</t>
+  </si>
+  <si>
+    <t>Check for Coupon KRISHNASAKINALA is not applied for &lt;450</t>
+  </si>
+  <si>
+    <t>5) Now click the JavaScript book in the Arrivals</t>
+  </si>
+  <si>
+    <t>12)Check whether error message is displayesd as 'COUPON NOT APPLIED FOR &lt;450'</t>
+  </si>
+  <si>
+    <t>Error massege is displayed as 
+'Coupon Not applied for &lt;450'</t>
+  </si>
+  <si>
+    <t>Error message is displaying</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1112,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1103,17 +1163,26 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1145,9 +1214,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1157,11 +1223,14 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1560,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" topLeftCell="D93" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,106 +1649,106 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40">
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
         <v>44802</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="9" spans="2:11" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1711,8 +1780,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1737,13 +1806,12 @@
       <c r="J10" s="20">
         <v>3</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1756,11 +1824,10 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1771,11 +1838,10 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -1786,11 +1852,10 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1801,26 +1866,24 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="24" t="s">
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -1845,13 +1908,12 @@
       <c r="J16" s="20">
         <v>3</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -1864,11 +1926,10 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -1879,11 +1940,10 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -1894,26 +1954,24 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="24" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -1940,13 +1998,12 @@
       <c r="J21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1959,11 +2016,10 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1974,11 +2030,10 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="41"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1989,11 +2044,10 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -2004,11 +2058,10 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -2019,11 +2072,10 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="41"/>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -2034,26 +2086,24 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="41"/>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="41"/>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="24" t="s">
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -2084,9 +2134,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -2101,9 +2150,8 @@
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="22"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -2116,9 +2164,8 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -2131,9 +2178,8 @@
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="22"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -2146,9 +2192,8 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -2161,9 +2206,8 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -2176,9 +2220,8 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="25"/>
+    <row r="36" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -2191,9 +2234,8 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -2206,9 +2248,8 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="25"/>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -2221,24 +2262,22 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+    <row r="39" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="24" t="s">
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="20" t="s">
@@ -2269,9 +2308,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="25"/>
+    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
@@ -2286,9 +2324,8 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="25"/>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="22"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -2301,9 +2338,8 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="25"/>
+    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -2316,9 +2352,8 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
+    <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="22"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -2331,9 +2366,8 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="25"/>
+    <row r="45" spans="2:11" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -2346,9 +2380,8 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="25"/>
+    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="22"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
@@ -2361,24 +2394,22 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+    <row r="47" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="24" t="s">
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="20" t="s">
@@ -2409,9 +2440,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="25"/>
+    <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="22"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -2426,9 +2456,8 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="25"/>
+    <row r="50" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -2441,9 +2470,8 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="25"/>
+    <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="22"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2456,9 +2484,8 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="25"/>
+    <row r="52" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="22"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -2471,9 +2498,8 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="25"/>
+    <row r="53" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="22"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -2486,9 +2512,8 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="25"/>
+    <row r="54" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="22"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -2501,8 +2526,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
         <v>72</v>
       </c>
@@ -2534,9 +2558,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="25"/>
+    <row r="56" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
@@ -2551,9 +2574,8 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="25"/>
+    <row r="57" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="22"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
@@ -2566,9 +2588,8 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="25"/>
+    <row r="58" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
@@ -2581,9 +2602,8 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="25"/>
+    <row r="59" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="22"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
@@ -2596,9 +2616,8 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="25"/>
+    <row r="60" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
@@ -2611,9 +2630,8 @@
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="25"/>
+    <row r="61" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="22"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
@@ -2626,9 +2644,8 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="25"/>
+    <row r="62" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="22"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
@@ -2641,8 +2658,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
         <v>78</v>
       </c>
@@ -2672,9 +2688,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="25"/>
+    <row r="64" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
@@ -2687,9 +2702,8 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="25"/>
+    <row r="65" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
@@ -2702,9 +2716,8 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="25"/>
+    <row r="66" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="22"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
@@ -2717,9 +2730,8 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="25"/>
+    <row r="67" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="22"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
@@ -2732,9 +2744,8 @@
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="25"/>
+    <row r="68" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="22"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -2747,9 +2758,8 @@
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="25"/>
+    <row r="69" spans="2:11" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="22"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -2762,9 +2772,8 @@
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="25"/>
+    <row r="70" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="22"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -2777,463 +2786,545 @@
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="43"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="43"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="22"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="43"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="43"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="43"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="22"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="43"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="22"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="43"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="2:11" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="22"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="43"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="22"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="22"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="22"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" s="43"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="22"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="43"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="22"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="43"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="22"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="43"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="22"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" s="43"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="22"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="43"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="22"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="43"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="2:11" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="22"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" s="43"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="22"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G92" s="43"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="22"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" s="44"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="22"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="43"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="22"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="43"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="22"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="43"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="22"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="43"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="22"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="43"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="22"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" s="43"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="22"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" s="43"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="22"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" s="43"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="2:11" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="22"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" s="43"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="22"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G104" s="43"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="22"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" s="44"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3245,8 +3336,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3258,8 +3348,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3271,8 +3360,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3284,8 +3372,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3297,8 +3384,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3310,8 +3396,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3323,8 +3408,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3336,8 +3420,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3349,8 +3432,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3362,8 +3444,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3375,8 +3456,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3388,8 +3468,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3401,8 +3480,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3414,8 +3492,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3427,8 +3504,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3440,8 +3516,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3453,8 +3528,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3466,8 +3540,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3479,8 +3552,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3492,8 +3564,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3505,8 +3576,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3518,8 +3588,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3531,8 +3600,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -3544,8 +3612,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3557,8 +3624,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -3570,8 +3636,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3583,8 +3648,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3596,8 +3660,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -3609,8 +3672,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3622,8 +3684,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3635,8 +3696,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -3648,8 +3708,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3661,8 +3720,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -3674,8 +3732,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3687,8 +3744,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -3700,8 +3756,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3713,8 +3768,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -3726,8 +3780,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3739,8 +3792,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -3752,8 +3804,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3765,8 +3816,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3778,8 +3828,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3791,8 +3840,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -3804,8 +3852,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3817,8 +3864,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3830,8 +3876,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3843,8 +3888,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3856,8 +3900,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3869,8 +3912,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3882,8 +3924,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -3895,8 +3936,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -3908,8 +3948,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3921,8 +3960,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -3934,8 +3972,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3947,8 +3984,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -3960,8 +3996,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3973,8 +4008,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3986,8 +4020,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3999,8 +4032,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -4012,8 +4044,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -4025,8 +4056,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -4038,8 +4068,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -4051,8 +4080,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -4064,8 +4092,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -4077,8 +4104,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -4090,8 +4116,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -4103,8 +4128,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -4116,8 +4140,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -4129,8 +4152,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -4142,8 +4164,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -4155,8 +4176,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -4168,8 +4188,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -4181,8 +4200,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -4194,8 +4212,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -4207,8 +4224,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -4220,8 +4236,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -4233,8 +4248,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -4246,8 +4260,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -4259,8 +4272,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -4272,8 +4284,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -4285,8 +4296,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -4298,8 +4308,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -4311,8 +4320,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -4324,8 +4332,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -4337,8 +4344,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -4350,8 +4356,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -4363,8 +4368,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -4376,8 +4380,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -4389,8 +4392,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -4402,8 +4404,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4415,8 +4416,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4428,8 +4428,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4441,8 +4440,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4454,8 +4452,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4467,8 +4464,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4480,8 +4476,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4493,8 +4488,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4506,8 +4500,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4519,8 +4512,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4532,8 +4524,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4545,8 +4536,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4558,8 +4548,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4571,8 +4560,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4584,8 +4572,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4597,8 +4584,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4610,8 +4596,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4623,8 +4608,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4636,8 +4620,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4649,8 +4632,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4662,8 +4644,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4675,8 +4656,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4688,8 +4668,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4701,8 +4680,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4714,8 +4692,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4727,8 +4704,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4740,8 +4716,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4753,8 +4728,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4766,8 +4740,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4779,8 +4752,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4792,8 +4764,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4805,8 +4776,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4818,8 +4788,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4831,8 +4800,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4844,8 +4812,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4857,8 +4824,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4870,8 +4836,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4883,8 +4848,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4896,8 +4860,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4909,8 +4872,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4922,8 +4884,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4935,8 +4896,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4948,8 +4908,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4961,8 +4920,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4974,8 +4932,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4987,8 +4944,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -5000,8 +4956,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -5013,8 +4968,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -5026,8 +4980,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -5039,8 +4992,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -5052,8 +5004,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -5065,8 +5016,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -5078,8 +5028,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -5091,8 +5040,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -5104,8 +5052,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -5117,8 +5064,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -5130,8 +5076,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -5143,8 +5088,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -5156,8 +5100,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -5169,8 +5112,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -5182,8 +5124,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -5195,8 +5136,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -5208,8 +5148,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -5221,8 +5160,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -5234,8 +5172,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -5247,8 +5184,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -5260,8 +5196,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -5273,8 +5208,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -5286,8 +5220,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -5299,8 +5232,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -5312,8 +5244,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -5325,8 +5256,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -5338,8 +5268,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -5351,8 +5280,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -5364,8 +5292,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -5377,8 +5304,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -5390,8 +5316,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -5403,8 +5328,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -5416,8 +5340,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -5429,8 +5352,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -5442,8 +5364,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -5455,8 +5376,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -5468,8 +5388,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -5481,8 +5400,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -5494,8 +5412,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -5507,8 +5424,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -5520,8 +5436,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -5533,8 +5448,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -5546,8 +5460,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -5559,8 +5472,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -5572,8 +5484,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -5585,8 +5496,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -5598,8 +5508,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -5611,8 +5520,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -5624,8 +5532,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -5637,8 +5544,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5650,8 +5556,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -5663,8 +5568,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -5676,8 +5580,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -5689,8 +5592,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -5702,8 +5604,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -5715,8 +5616,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -5728,8 +5628,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5741,8 +5640,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -5754,8 +5652,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -5767,8 +5664,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -5780,8 +5676,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -5793,8 +5688,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -5806,8 +5700,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -5819,8 +5712,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5832,8 +5724,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -5845,8 +5736,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -5858,8 +5748,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -5871,8 +5760,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -5884,8 +5772,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -5897,8 +5784,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -5910,8 +5796,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5923,8 +5808,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -5936,8 +5820,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -5949,8 +5832,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -5962,8 +5844,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -5975,8 +5856,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -5988,8 +5868,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -6001,8 +5880,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -6014,8 +5892,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -6027,8 +5904,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -6040,8 +5916,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -6053,8 +5928,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -6066,8 +5940,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -6079,8 +5952,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -6092,8 +5964,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -6105,8 +5976,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -6118,8 +5988,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -6131,8 +6000,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -6144,8 +6012,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -6157,8 +6024,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -6170,8 +6036,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -6183,8 +6048,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -6196,8 +6060,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -6209,8 +6072,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -6222,8 +6084,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -6235,8 +6096,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -6248,8 +6108,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -6261,8 +6120,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -6274,8 +6132,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -6287,8 +6144,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -6300,8 +6156,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -6313,8 +6168,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -6326,8 +6180,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -6339,8 +6192,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -6352,8 +6204,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -6365,8 +6216,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -6378,8 +6228,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -6391,8 +6240,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -6404,8 +6252,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -6417,8 +6264,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -6430,8 +6276,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -6443,8 +6288,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -6456,8 +6300,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -6469,8 +6312,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -6482,8 +6324,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -6495,8 +6336,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -6508,8 +6348,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -6521,8 +6360,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -6534,8 +6372,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1"/>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -6547,8 +6384,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -6560,8 +6396,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -6573,8 +6408,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -6586,8 +6420,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -6599,8 +6432,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -6612,8 +6444,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -6625,8 +6456,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -6638,8 +6468,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -6651,8 +6480,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -6664,8 +6492,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -6677,8 +6504,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -6690,8 +6516,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -6703,8 +6528,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
+    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -6716,8 +6540,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -6729,8 +6552,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -6742,8 +6564,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -6755,8 +6576,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
+    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -6768,8 +6588,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -6781,8 +6600,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
+    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -6794,8 +6612,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1"/>
+    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -6807,8 +6624,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1"/>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -6820,8 +6636,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1"/>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -6833,8 +6648,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -6846,8 +6660,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
+    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -6859,8 +6672,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
+    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -6872,8 +6684,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
+    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -6885,8 +6696,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
+    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -6898,8 +6708,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
+    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -6911,8 +6720,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
+    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -6924,8 +6732,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
+    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -6937,8 +6744,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
+    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -6950,8 +6756,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
+    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -6963,8 +6768,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
+    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -6976,8 +6780,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
+    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -6989,8 +6792,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
+    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -7002,8 +6804,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
+    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -7015,8 +6816,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
+    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -7028,8 +6828,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
+    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -7041,8 +6840,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
+    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -7054,8 +6852,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
+    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -7067,8 +6864,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
+    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -7080,8 +6876,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -7093,8 +6888,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -7106,8 +6900,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -7119,8 +6912,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -7132,8 +6924,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -7145,8 +6936,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -7158,8 +6948,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -7171,8 +6960,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -7184,8 +6972,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -7197,8 +6984,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -7210,8 +6996,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -7223,8 +7008,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -7236,8 +7020,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -7249,8 +7032,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -7262,8 +7044,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -7275,8 +7056,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -7288,8 +7068,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -7301,8 +7080,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -7314,8 +7092,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1"/>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -7327,8 +7104,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -7340,8 +7116,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -7353,8 +7128,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -7366,8 +7140,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="1"/>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -7379,8 +7152,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -7392,8 +7164,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="1"/>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -7405,8 +7176,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="1"/>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -7418,8 +7188,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -7431,8 +7200,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -7444,8 +7212,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -7457,8 +7224,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -7470,8 +7236,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -7483,8 +7248,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -7496,8 +7260,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -7509,8 +7272,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -7522,8 +7284,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="1"/>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -7535,8 +7296,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -7548,8 +7308,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -7561,8 +7320,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -7574,8 +7332,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="1"/>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -7587,8 +7344,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -7600,8 +7356,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="1"/>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -7613,8 +7368,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -7626,8 +7380,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="1"/>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -7639,8 +7392,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -7652,8 +7404,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="1"/>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -7665,8 +7416,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="1"/>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -7678,8 +7428,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -7691,8 +7440,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="1"/>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -7704,8 +7452,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1"/>
+    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -7717,8 +7464,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="1"/>
+    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -7730,8 +7476,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="1"/>
+    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -7743,8 +7488,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="1"/>
+    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -7756,8 +7500,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
+    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -7769,8 +7512,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="1"/>
+    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -7782,8 +7524,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="1"/>
+    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -7795,8 +7536,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
+    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -7808,8 +7548,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="1"/>
+    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -7821,8 +7560,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="1"/>
+    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -7834,8 +7572,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="1"/>
+    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -7847,8 +7584,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
+    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -7860,8 +7596,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="1"/>
+    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -7873,8 +7608,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="1"/>
+    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -7886,8 +7620,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
+    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -7899,8 +7632,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="1"/>
+    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -7912,8 +7644,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="1"/>
+    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -7925,8 +7656,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
+    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -7938,8 +7668,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="1"/>
+    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -7951,8 +7680,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="1"/>
+    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -7964,8 +7692,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
+    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -7977,8 +7704,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="1"/>
+    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -7990,8 +7716,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="1"/>
+    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -8003,8 +7728,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="1"/>
+    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -8016,8 +7740,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="1"/>
+    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -8029,8 +7752,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="1"/>
+    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -8042,8 +7764,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="1"/>
+    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -8055,8 +7776,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
+    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -8068,8 +7788,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1"/>
+    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -8081,8 +7800,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="1"/>
+    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -8094,8 +7812,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="1"/>
+    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -8107,8 +7824,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="1"/>
+    <row r="481" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -8120,8 +7836,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="1"/>
+    <row r="482" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -8133,8 +7848,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
+    <row r="483" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -8146,8 +7860,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1"/>
+    <row r="484" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -8159,8 +7872,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="1"/>
+    <row r="485" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -8172,8 +7884,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
+    <row r="486" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -8185,8 +7896,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="1"/>
+    <row r="487" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -8198,8 +7908,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="1"/>
+    <row r="488" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -8211,8 +7920,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1"/>
+    <row r="489" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -8224,8 +7932,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="1"/>
+    <row r="490" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -8237,8 +7944,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="1"/>
+    <row r="491" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -8250,8 +7956,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="1"/>
+    <row r="492" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -8263,8 +7968,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
+    <row r="493" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -8276,8 +7980,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1"/>
+    <row r="494" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -8289,8 +7992,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1"/>
+    <row r="495" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -8302,8 +8004,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="1"/>
+    <row r="496" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -8315,8 +8016,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1"/>
+    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -8328,8 +8028,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1"/>
+    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -8341,8 +8040,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1"/>
+    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -8354,8 +8052,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1"/>
+    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -8367,8 +8064,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1"/>
+    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -8380,8 +8076,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
+    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -8393,8 +8088,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1"/>
+    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -8406,8 +8100,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
+    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -8419,8 +8112,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1"/>
+    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -8432,8 +8124,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="1"/>
+    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -8445,8 +8136,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="1"/>
+    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -8458,8 +8148,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="1"/>
+    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -8471,8 +8160,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
+    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -8484,8 +8172,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="1"/>
+    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -8497,8 +8184,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="1"/>
+    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -8510,8 +8196,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="1"/>
+    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -8523,8 +8208,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
+    <row r="513" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -8536,8 +8220,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
+    <row r="514" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -8549,8 +8232,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
+    <row r="515" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -8562,8 +8244,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
+    <row r="516" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -8575,8 +8256,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
+    <row r="517" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -8588,8 +8268,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
+    <row r="518" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -8601,8 +8280,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
+    <row r="519" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -8614,8 +8292,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
+    <row r="520" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -8627,8 +8304,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1"/>
+    <row r="521" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -8640,8 +8316,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
+    <row r="522" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -8653,8 +8328,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
+    <row r="523" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -8666,8 +8340,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1"/>
+    <row r="524" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -8679,8 +8352,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1"/>
+    <row r="525" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -8692,8 +8364,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1"/>
+    <row r="526" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -8705,8 +8376,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1"/>
+    <row r="527" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -8718,8 +8388,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1"/>
+    <row r="528" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -8731,8 +8400,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="1"/>
+    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -8744,8 +8412,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1"/>
+    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -8757,8 +8424,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1"/>
+    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -8770,8 +8436,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
+    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -8783,8 +8448,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="1"/>
+    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -8796,8 +8460,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="1"/>
+    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -8809,8 +8472,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="1"/>
+    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -8822,8 +8484,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="1"/>
+    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -8835,8 +8496,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="1"/>
+    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -8848,8 +8508,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="1"/>
+    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -8861,8 +8520,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
+    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -8874,8 +8532,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1"/>
+    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -8887,8 +8544,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1"/>
+    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -8900,8 +8556,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1"/>
+    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -8913,8 +8568,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
-    <row r="543" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1"/>
+    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -8926,8 +8580,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1"/>
+    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -8939,8 +8592,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
-    <row r="545" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1"/>
+    <row r="545" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -8952,8 +8604,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1"/>
+    <row r="546" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -8965,8 +8616,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
-    <row r="547" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1"/>
+    <row r="547" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -8978,8 +8628,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
+    <row r="548" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -8991,8 +8640,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
-    <row r="549" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1"/>
+    <row r="549" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -9004,8 +8652,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1"/>
+    <row r="550" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -9017,8 +8664,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1"/>
+    <row r="551" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -9030,8 +8676,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1"/>
+    <row r="552" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -9043,8 +8688,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1"/>
+    <row r="553" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -9056,8 +8700,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1"/>
+    <row r="554" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -9069,8 +8712,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
+    <row r="555" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -9082,8 +8724,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1"/>
+    <row r="556" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -9095,8 +8736,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1"/>
+    <row r="557" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -9108,8 +8748,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
+    <row r="558" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -9121,8 +8760,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1"/>
+    <row r="559" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -9134,8 +8772,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
-    <row r="560" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1"/>
+    <row r="560" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -9147,8 +8784,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
+    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -9160,8 +8796,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
-    <row r="562" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1"/>
+    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -9173,8 +8808,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
-    <row r="563" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1"/>
+    <row r="563" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -9186,8 +8820,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
+    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -9199,8 +8832,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
-    <row r="565" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1"/>
+    <row r="565" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -9212,8 +8844,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1"/>
+    <row r="566" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -9225,8 +8856,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
-    <row r="567" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
+    <row r="567" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -9238,8 +8868,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1"/>
+    <row r="568" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -9251,8 +8880,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1"/>
+    <row r="569" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -9264,8 +8892,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1"/>
+    <row r="570" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -9277,8 +8904,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1"/>
+    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -9290,8 +8916,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
-    <row r="572" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
+    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -9303,8 +8928,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
-    <row r="573" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1"/>
+    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -9316,8 +8940,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1"/>
+    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -9329,8 +8952,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
+    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -9342,8 +8964,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1"/>
+    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -9355,8 +8976,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1"/>
+    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -9368,8 +8988,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -9381,8 +9000,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1"/>
+    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -9394,8 +9012,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1"/>
+    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -9407,8 +9024,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1"/>
+    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -9420,8 +9036,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1"/>
+    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -9433,8 +9048,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1"/>
+    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -9446,8 +9060,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1"/>
+    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -9459,8 +9072,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1"/>
+    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -9472,8 +9084,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1"/>
+    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -9485,8 +9096,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1"/>
+    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -9498,8 +9108,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1"/>
+    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -9511,8 +9120,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1"/>
+    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -9524,8 +9132,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1"/>
+    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -9537,8 +9144,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1"/>
+    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -9550,8 +9156,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1"/>
+    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -9563,8 +9168,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
+    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -9576,8 +9180,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
+    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -9589,8 +9192,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
+    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -9602,8 +9204,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
+    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -9615,8 +9216,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
+    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -9628,8 +9228,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
+    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -9641,8 +9240,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
+    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -9654,8 +9252,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1"/>
+    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -9667,8 +9264,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1"/>
+    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -9680,8 +9276,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1"/>
+    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -9693,8 +9288,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="1"/>
+    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -9706,8 +9300,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1"/>
+    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -9719,8 +9312,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1"/>
+    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -9732,8 +9324,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1"/>
+    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -9745,8 +9336,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="1"/>
+    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -9758,8 +9348,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="1"/>
+    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -9771,8 +9360,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="1"/>
+    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -9784,8 +9372,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1"/>
+    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -9797,8 +9384,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="1"/>
+    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -9810,8 +9396,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1"/>
+    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -9823,8 +9408,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="1"/>
+    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -9836,8 +9420,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1"/>
+    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -9849,8 +9432,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1"/>
+    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -9862,8 +9444,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1"/>
+    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -9875,8 +9456,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="1"/>
+    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -9888,8 +9468,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1"/>
+    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -9901,8 +9480,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="1"/>
+    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -9914,8 +9492,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="1"/>
+    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -9927,8 +9504,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="1"/>
+    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -9940,8 +9516,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="1"/>
+    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -9953,8 +9528,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="1"/>
+    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -9966,8 +9540,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="1"/>
+    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -9979,8 +9552,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1"/>
+    <row r="625" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -9992,8 +9564,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="1"/>
+    <row r="626" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -10005,8 +9576,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="1"/>
+    <row r="627" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -10018,8 +9588,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="1"/>
+    <row r="628" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -10031,8 +9600,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="1"/>
+    <row r="629" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -10044,8 +9612,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="1"/>
+    <row r="630" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -10057,8 +9624,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="1"/>
+    <row r="631" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -10070,8 +9636,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="1"/>
+    <row r="632" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -10083,8 +9648,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="1"/>
+    <row r="633" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -10096,8 +9660,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="1"/>
+    <row r="634" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -10109,8 +9672,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="1"/>
+    <row r="635" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -10122,8 +9684,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="1"/>
+    <row r="636" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -10135,8 +9696,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="1"/>
+    <row r="637" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -10148,8 +9708,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="1"/>
+    <row r="638" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -10161,8 +9720,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="1"/>
+    <row r="639" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -10174,8 +9732,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="1"/>
+    <row r="640" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -10187,8 +9744,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="1"/>
+    <row r="641" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -10200,8 +9756,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="1"/>
+    <row r="642" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -10213,8 +9768,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="1"/>
+    <row r="643" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -10226,8 +9780,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="1"/>
+    <row r="644" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -10239,8 +9792,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="1"/>
+    <row r="645" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -10252,8 +9804,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="1"/>
+    <row r="646" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -10265,8 +9816,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="1"/>
+    <row r="647" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -10278,8 +9828,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="1"/>
+    <row r="648" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -10291,8 +9840,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="1"/>
+    <row r="649" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -10304,8 +9852,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
+    <row r="650" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -10317,8 +9864,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="1"/>
+    <row r="651" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -10330,8 +9876,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
+    <row r="652" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -10343,8 +9888,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
+    <row r="653" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -10356,8 +9900,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="1"/>
+    <row r="654" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -10369,8 +9912,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
+    <row r="655" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -10382,8 +9924,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="1"/>
+    <row r="656" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -10395,8 +9936,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="1"/>
+    <row r="657" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -10408,8 +9948,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="1"/>
+    <row r="658" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -10421,8 +9960,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="1"/>
+    <row r="659" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -10434,8 +9972,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="1"/>
+    <row r="660" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -10447,8 +9984,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="1"/>
+    <row r="661" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -10460,8 +9996,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="1"/>
+    <row r="662" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -10473,8 +10008,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="1"/>
+    <row r="663" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -10486,8 +10020,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="1"/>
+    <row r="664" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -10499,8 +10032,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
+    <row r="665" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -10512,8 +10044,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
+    <row r="666" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -10525,8 +10056,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
+    <row r="667" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -10538,8 +10068,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
+    <row r="668" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -10551,8 +10080,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="1"/>
+    <row r="669" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -10564,8 +10092,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="1"/>
+    <row r="670" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -10577,8 +10104,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="1"/>
+    <row r="671" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -10590,8 +10116,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="1"/>
+    <row r="672" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -10603,8 +10128,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="1"/>
+    <row r="673" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -10616,8 +10140,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="1"/>
+    <row r="674" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -10629,8 +10152,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="1"/>
+    <row r="675" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -10642,8 +10164,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="1"/>
+    <row r="676" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -10655,8 +10176,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="1"/>
+    <row r="677" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -10668,8 +10188,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="1"/>
+    <row r="678" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -10681,8 +10200,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="1"/>
+    <row r="679" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -10694,8 +10212,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="1"/>
+    <row r="680" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -10707,8 +10224,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="1"/>
+    <row r="681" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -10720,8 +10236,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="1"/>
+    <row r="682" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -10733,8 +10248,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="1"/>
+    <row r="683" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -10746,8 +10260,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="1"/>
+    <row r="684" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -10759,8 +10272,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="1"/>
+    <row r="685" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -10772,8 +10284,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="1"/>
+    <row r="686" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -10785,8 +10296,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="1"/>
+    <row r="687" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -10798,8 +10308,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="1"/>
+    <row r="688" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -10811,8 +10320,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="1"/>
+    <row r="689" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -10824,8 +10332,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="1"/>
+    <row r="690" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -10837,8 +10344,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="1"/>
+    <row r="691" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -10850,8 +10356,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="1"/>
+    <row r="692" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -10863,8 +10368,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="1"/>
+    <row r="693" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -10876,8 +10380,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="1"/>
+    <row r="694" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -10889,8 +10392,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="1"/>
+    <row r="695" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -10902,8 +10404,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="1"/>
+    <row r="696" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -10915,8 +10416,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="1"/>
+    <row r="697" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -10928,8 +10428,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="1"/>
+    <row r="698" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -10941,8 +10440,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="1"/>
+    <row r="699" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -10954,8 +10452,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="1"/>
+    <row r="700" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -10967,8 +10464,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="1"/>
+    <row r="701" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -10980,8 +10476,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="1"/>
+    <row r="702" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -10993,8 +10488,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="1"/>
+    <row r="703" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -11006,8 +10500,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="1"/>
+    <row r="704" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -11019,8 +10512,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="1"/>
+    <row r="705" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -11032,8 +10524,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="1"/>
+    <row r="706" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -11045,8 +10536,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="1"/>
+    <row r="707" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -11058,8 +10548,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="1"/>
+    <row r="708" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -11071,8 +10560,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="1"/>
+    <row r="709" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -11084,8 +10572,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="1"/>
+    <row r="710" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -11097,8 +10584,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="1"/>
+    <row r="711" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -11110,8 +10596,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="1"/>
+    <row r="712" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -11123,8 +10608,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="1"/>
+    <row r="713" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -11136,8 +10620,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
     </row>
-    <row r="714" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="1"/>
+    <row r="714" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -11149,8 +10632,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="715" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="1"/>
+    <row r="715" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -11162,8 +10644,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
     </row>
-    <row r="716" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="1"/>
+    <row r="716" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -11175,8 +10656,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
     </row>
-    <row r="717" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1"/>
+    <row r="717" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -11188,8 +10668,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
     </row>
-    <row r="718" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="1"/>
+    <row r="718" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -11201,8 +10680,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
     </row>
-    <row r="719" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="1"/>
+    <row r="719" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -11214,8 +10692,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
     </row>
-    <row r="720" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="1"/>
+    <row r="720" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -11227,8 +10704,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="721" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="1"/>
+    <row r="721" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -11240,8 +10716,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
     </row>
-    <row r="722" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="1"/>
+    <row r="722" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -11253,8 +10728,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
     </row>
-    <row r="723" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="1"/>
+    <row r="723" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -11266,8 +10740,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
     </row>
-    <row r="724" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="1"/>
+    <row r="724" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -11279,8 +10752,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
     </row>
-    <row r="725" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="1"/>
+    <row r="725" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -11292,8 +10764,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
     </row>
-    <row r="726" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="1"/>
+    <row r="726" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -11305,8 +10776,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
     </row>
-    <row r="727" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="1"/>
+    <row r="727" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -11318,8 +10788,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
     </row>
-    <row r="728" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="1"/>
+    <row r="728" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -11331,8 +10800,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
     </row>
-    <row r="729" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="1"/>
+    <row r="729" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -11344,8 +10812,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
     </row>
-    <row r="730" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="1"/>
+    <row r="730" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -11357,8 +10824,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
     </row>
-    <row r="731" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="1"/>
+    <row r="731" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -11370,8 +10836,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
     </row>
-    <row r="732" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="1"/>
+    <row r="732" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -11383,8 +10848,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
     </row>
-    <row r="733" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="1"/>
+    <row r="733" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -11396,8 +10860,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="1"/>
+    <row r="734" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -11409,8 +10872,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
     </row>
-    <row r="735" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="1"/>
+    <row r="735" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -11422,8 +10884,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
     </row>
-    <row r="736" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="1"/>
+    <row r="736" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -11435,8 +10896,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
     </row>
-    <row r="737" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="1"/>
+    <row r="737" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -11448,8 +10908,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
     </row>
-    <row r="738" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="1"/>
+    <row r="738" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -11461,8 +10920,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
     </row>
-    <row r="739" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="1"/>
+    <row r="739" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -11474,8 +10932,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="1"/>
+    <row r="740" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -11487,8 +10944,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
     </row>
-    <row r="741" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="1"/>
+    <row r="741" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -11500,8 +10956,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
     </row>
-    <row r="742" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="1"/>
+    <row r="742" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -11513,8 +10968,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
     </row>
-    <row r="743" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="1"/>
+    <row r="743" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -11526,8 +10980,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
     </row>
-    <row r="744" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1"/>
+    <row r="744" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -11539,8 +10992,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
     </row>
-    <row r="745" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="1"/>
+    <row r="745" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -11552,8 +11004,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
     </row>
-    <row r="746" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="1"/>
+    <row r="746" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -11565,8 +11016,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="1"/>
+    <row r="747" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -11578,8 +11028,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
     </row>
-    <row r="748" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="1"/>
+    <row r="748" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -11591,8 +11040,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
     </row>
-    <row r="749" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="1"/>
+    <row r="749" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -11604,8 +11052,7 @@
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
     </row>
-    <row r="750" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="1"/>
+    <row r="750" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -11617,8 +11064,7 @@
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
     </row>
-    <row r="751" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="1"/>
+    <row r="751" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -11630,8 +11076,7 @@
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
     </row>
-    <row r="752" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="1"/>
+    <row r="752" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -11643,8 +11088,7 @@
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
     </row>
-    <row r="753" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="1"/>
+    <row r="753" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -11656,8 +11100,7 @@
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
     </row>
-    <row r="754" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="1"/>
+    <row r="754" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -11669,8 +11112,7 @@
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
     </row>
-    <row r="755" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="1"/>
+    <row r="755" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -11682,8 +11124,7 @@
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
     </row>
-    <row r="756" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="1"/>
+    <row r="756" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -11695,8 +11136,7 @@
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
     </row>
-    <row r="757" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="1"/>
+    <row r="757" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -11708,8 +11148,7 @@
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
     </row>
-    <row r="758" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="1"/>
+    <row r="758" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -11721,8 +11160,7 @@
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
     </row>
-    <row r="759" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="1"/>
+    <row r="759" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -11734,8 +11172,7 @@
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
     </row>
-    <row r="760" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="1"/>
+    <row r="760" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -11747,8 +11184,7 @@
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
     </row>
-    <row r="761" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="1"/>
+    <row r="761" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -11760,8 +11196,7 @@
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
     </row>
-    <row r="762" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="1"/>
+    <row r="762" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -11773,8 +11208,7 @@
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
     </row>
-    <row r="763" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="1"/>
+    <row r="763" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -11786,8 +11220,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
     </row>
-    <row r="764" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="1"/>
+    <row r="764" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -11799,68 +11232,127 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
     </row>
-    <row r="765" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="1"/>
-      <c r="B765" s="1"/>
-      <c r="C765" s="1"/>
-      <c r="D765" s="1"/>
-      <c r="E765" s="9"/>
-      <c r="F765" s="9"/>
-      <c r="G765" s="1"/>
-      <c r="H765" s="1"/>
-      <c r="I765" s="1"/>
-      <c r="J765" s="1"/>
-      <c r="K765" s="1"/>
-    </row>
-    <row r="766" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="1"/>
-      <c r="B766" s="1"/>
-      <c r="C766" s="1"/>
-      <c r="D766" s="1"/>
-      <c r="E766" s="9"/>
-      <c r="F766" s="9"/>
-      <c r="G766" s="1"/>
-      <c r="H766" s="1"/>
-      <c r="I766" s="1"/>
-      <c r="J766" s="1"/>
-      <c r="K766" s="1"/>
-    </row>
-    <row r="767" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="1"/>
-      <c r="B767" s="1"/>
-      <c r="C767" s="1"/>
-      <c r="D767" s="1"/>
-      <c r="E767" s="9"/>
-      <c r="F767" s="9"/>
-      <c r="G767" s="1"/>
-      <c r="H767" s="1"/>
-      <c r="I767" s="1"/>
-      <c r="J767" s="1"/>
-      <c r="K767" s="1"/>
-    </row>
-    <row r="768" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="1"/>
-      <c r="B768" s="1"/>
-      <c r="C768" s="1"/>
-      <c r="D768" s="1"/>
-      <c r="E768" s="9"/>
-      <c r="F768" s="9"/>
-      <c r="G768" s="1"/>
-      <c r="H768" s="1"/>
-      <c r="I768" s="1"/>
-      <c r="J768" s="1"/>
-      <c r="K768" s="1"/>
+    <row r="765" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B765" s="2"/>
+      <c r="C765" s="2"/>
+      <c r="D765" s="2"/>
+      <c r="E765" s="11"/>
+      <c r="F765" s="11"/>
+      <c r="G765" s="2"/>
+      <c r="H765" s="2"/>
+      <c r="I765" s="2"/>
+      <c r="J765" s="2"/>
+      <c r="K765" s="2"/>
+    </row>
+    <row r="766" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B766" s="2"/>
+      <c r="C766" s="2"/>
+      <c r="D766" s="2"/>
+      <c r="E766" s="11"/>
+      <c r="F766" s="11"/>
+      <c r="G766" s="2"/>
+      <c r="H766" s="2"/>
+      <c r="I766" s="2"/>
+      <c r="J766" s="2"/>
+      <c r="K766" s="2"/>
+    </row>
+    <row r="767" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B767" s="2"/>
+      <c r="C767" s="2"/>
+      <c r="D767" s="2"/>
+      <c r="E767" s="11"/>
+      <c r="F767" s="11"/>
+      <c r="G767" s="2"/>
+      <c r="H767" s="2"/>
+      <c r="I767" s="2"/>
+      <c r="J767" s="2"/>
+      <c r="K767" s="2"/>
+    </row>
+    <row r="768" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F768" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="I63:I70"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="K63:K70"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="H63:H70"/>
+  <mergeCells count="104">
+    <mergeCell ref="H94:H105"/>
+    <mergeCell ref="I94:I105"/>
+    <mergeCell ref="J94:J105"/>
+    <mergeCell ref="K94:K105"/>
+    <mergeCell ref="B94:B105"/>
+    <mergeCell ref="C94:C105"/>
+    <mergeCell ref="D94:D105"/>
+    <mergeCell ref="E94:E105"/>
+    <mergeCell ref="G94:G105"/>
+    <mergeCell ref="I71:I81"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="K71:K81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B82:B93"/>
+    <mergeCell ref="C82:C93"/>
+    <mergeCell ref="D82:D93"/>
+    <mergeCell ref="E82:E93"/>
+    <mergeCell ref="G82:G93"/>
+    <mergeCell ref="H82:H93"/>
+    <mergeCell ref="I82:I93"/>
+    <mergeCell ref="J82:J93"/>
+    <mergeCell ref="K82:K93"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="H71:H81"/>
+    <mergeCell ref="H40:H47"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="K40:K47"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H29:H39"/>
+    <mergeCell ref="J29:J39"/>
+    <mergeCell ref="K29:K39"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="H2:K7"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="C29:C39"/>
+    <mergeCell ref="D29:D39"/>
+    <mergeCell ref="E29:E39"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="I29:I39"/>
     <mergeCell ref="I48:I54"/>
     <mergeCell ref="J48:J54"/>
     <mergeCell ref="K48:K54"/>
@@ -11877,59 +11369,14 @@
     <mergeCell ref="D48:D54"/>
     <mergeCell ref="E48:E54"/>
     <mergeCell ref="H48:H54"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="I29:I39"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="C29:C39"/>
-    <mergeCell ref="D29:D39"/>
-    <mergeCell ref="E29:E39"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="H2:K7"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H40:H47"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="K40:K47"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H29:H39"/>
-    <mergeCell ref="J29:J39"/>
-    <mergeCell ref="K29:K39"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="I63:I70"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="K63:K70"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="H63:H70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>

--- a/AutomationPractice.com/Test-cases/HomePage-test-cases.xlsx
+++ b/AutomationPractice.com/Test-cases/HomePage-test-cases.xlsx
@@ -371,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +570,17 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF050DFC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1112,7 +1123,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1166,23 +1177,23 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1214,6 +1225,9 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1223,14 +1237,17 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1629,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D93" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,16 +1668,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="30" t="s">
         <v>17</v>
       </c>
@@ -1669,26 +1686,26 @@
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="33"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="35"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
@@ -1701,10 +1718,10 @@
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
@@ -1717,11 +1734,11 @@
       <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28">
+      <c r="C6" s="39"/>
+      <c r="D6" s="43">
         <v>44802</v>
       </c>
       <c r="E6" s="27"/>
@@ -1733,10 +1750,10 @@
       <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1798,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1793,7 +1810,7 @@
       <c r="E10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -1806,7 +1823,7 @@
       <c r="J10" s="20">
         <v>3</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1815,7 +1832,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="46" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -1824,7 +1841,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="25"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
@@ -1838,7 +1855,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="25"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
@@ -1852,7 +1869,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
@@ -1866,24 +1883,24 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -1908,7 +1925,7 @@
       <c r="J16" s="20">
         <v>3</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1926,7 +1943,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="25"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
@@ -1940,7 +1957,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
@@ -1954,24 +1971,24 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="29"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -1998,7 +2015,7 @@
       <c r="J21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="44" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2016,7 +2033,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
@@ -2030,7 +2047,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
@@ -2044,7 +2061,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="25"/>
+      <c r="K24" s="44"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
@@ -2058,7 +2075,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="25"/>
+      <c r="K25" s="44"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
@@ -2072,7 +2089,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="44"/>
     </row>
     <row r="27" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
@@ -2086,24 +2103,24 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="25"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="44"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -2264,20 +2281,20 @@
     </row>
     <row r="39" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="29"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="20" t="s">
@@ -2396,20 +2413,20 @@
     </row>
     <row r="47" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B47" s="29"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="20" t="s">
@@ -2802,7 +2819,7 @@
       <c r="F71" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H71" s="20" t="s">
@@ -2824,7 +2841,7 @@
       <c r="F72" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="43"/>
+      <c r="G72" s="24"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
@@ -2838,7 +2855,7 @@
       <c r="F73" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="43"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
@@ -2852,7 +2869,7 @@
       <c r="F74" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G74" s="43"/>
+      <c r="G74" s="24"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
@@ -2866,7 +2883,7 @@
       <c r="F75" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G75" s="43"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
@@ -2880,7 +2897,7 @@
       <c r="F76" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="43"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
@@ -2894,7 +2911,7 @@
       <c r="F77" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G77" s="43"/>
+      <c r="G77" s="24"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
@@ -2908,7 +2925,7 @@
       <c r="F78" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G78" s="43"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
@@ -2922,7 +2939,7 @@
       <c r="F79" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G79" s="43"/>
+      <c r="G79" s="24"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -2936,7 +2953,7 @@
       <c r="F80" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="43"/>
+      <c r="G80" s="24"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
@@ -2948,7 +2965,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="44"/>
+      <c r="G81" s="25"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
@@ -2970,7 +2987,7 @@
       <c r="F82" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="42" t="s">
+      <c r="G82" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H82" s="20" t="s">
@@ -2992,7 +3009,7 @@
       <c r="F83" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="24"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
@@ -3006,7 +3023,7 @@
       <c r="F84" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="24"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
@@ -3020,7 +3037,7 @@
       <c r="F85" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="24"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
@@ -3034,7 +3051,7 @@
       <c r="F86" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G86" s="43"/>
+      <c r="G86" s="24"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
@@ -3048,7 +3065,7 @@
       <c r="F87" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G87" s="43"/>
+      <c r="G87" s="24"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
@@ -3062,7 +3079,7 @@
       <c r="F88" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G88" s="43"/>
+      <c r="G88" s="24"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
@@ -3076,7 +3093,7 @@
       <c r="F89" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G89" s="43"/>
+      <c r="G89" s="24"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
@@ -3090,7 +3107,7 @@
       <c r="F90" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="24"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
@@ -3104,7 +3121,7 @@
       <c r="F91" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G91" s="43"/>
+      <c r="G91" s="24"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
@@ -3118,7 +3135,7 @@
       <c r="F92" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="24"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
@@ -3132,7 +3149,7 @@
       <c r="F93" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G93" s="44"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
@@ -3154,7 +3171,7 @@
       <c r="F94" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G94" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H94" s="20" t="s">
@@ -3178,7 +3195,7 @@
       <c r="F95" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="43"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
@@ -3192,7 +3209,7 @@
       <c r="F96" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G96" s="43"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
@@ -3206,7 +3223,7 @@
       <c r="F97" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G97" s="43"/>
+      <c r="G97" s="24"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
@@ -3220,7 +3237,7 @@
       <c r="F98" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G98" s="43"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
@@ -3234,7 +3251,7 @@
       <c r="F99" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G99" s="43"/>
+      <c r="G99" s="24"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
@@ -3248,7 +3265,7 @@
       <c r="F100" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G100" s="43"/>
+      <c r="G100" s="24"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -3262,7 +3279,7 @@
       <c r="F101" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G101" s="43"/>
+      <c r="G101" s="24"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
@@ -3276,7 +3293,7 @@
       <c r="F102" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G102" s="43"/>
+      <c r="G102" s="24"/>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -3290,7 +3307,7 @@
       <c r="F103" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G103" s="43"/>
+      <c r="G103" s="24"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
@@ -3304,7 +3321,7 @@
       <c r="F104" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G104" s="43"/>
+      <c r="G104" s="24"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
@@ -3318,7 +3335,7 @@
       <c r="F105" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G105" s="44"/>
+      <c r="G105" s="25"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
@@ -11273,49 +11290,40 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H94:H105"/>
-    <mergeCell ref="I94:I105"/>
-    <mergeCell ref="J94:J105"/>
-    <mergeCell ref="K94:K105"/>
-    <mergeCell ref="B94:B105"/>
-    <mergeCell ref="C94:C105"/>
-    <mergeCell ref="D94:D105"/>
-    <mergeCell ref="E94:E105"/>
-    <mergeCell ref="G94:G105"/>
-    <mergeCell ref="I71:I81"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="K71:K81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B82:B93"/>
-    <mergeCell ref="C82:C93"/>
-    <mergeCell ref="D82:D93"/>
-    <mergeCell ref="E82:E93"/>
-    <mergeCell ref="G82:G93"/>
-    <mergeCell ref="H82:H93"/>
-    <mergeCell ref="I82:I93"/>
-    <mergeCell ref="J82:J93"/>
-    <mergeCell ref="K82:K93"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="H71:H81"/>
-    <mergeCell ref="H40:H47"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="K40:K47"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H29:H39"/>
-    <mergeCell ref="J29:J39"/>
-    <mergeCell ref="K29:K39"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="I63:I70"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="K63:K70"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="H63:H70"/>
+    <mergeCell ref="I48:I54"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="K48:K54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="H55:H62"/>
+    <mergeCell ref="I55:I62"/>
+    <mergeCell ref="J55:J62"/>
+    <mergeCell ref="K55:K62"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K28"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="C40:C47"/>
     <mergeCell ref="D40:D47"/>
@@ -11340,43 +11348,52 @@
     <mergeCell ref="C29:C39"/>
     <mergeCell ref="D29:D39"/>
     <mergeCell ref="E29:E39"/>
+    <mergeCell ref="H40:H47"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="K40:K47"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H29:H39"/>
+    <mergeCell ref="J29:J39"/>
+    <mergeCell ref="K29:K39"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="J16:J20"/>
     <mergeCell ref="E21:E28"/>
     <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K28"/>
     <mergeCell ref="I29:I39"/>
-    <mergeCell ref="I48:I54"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="K48:K54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="H55:H62"/>
-    <mergeCell ref="I55:I62"/>
-    <mergeCell ref="J55:J62"/>
-    <mergeCell ref="K55:K62"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="I63:I70"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="K63:K70"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="H63:H70"/>
+    <mergeCell ref="I71:I81"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="K71:K81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B82:B93"/>
+    <mergeCell ref="C82:C93"/>
+    <mergeCell ref="D82:D93"/>
+    <mergeCell ref="E82:E93"/>
+    <mergeCell ref="G82:G93"/>
+    <mergeCell ref="H82:H93"/>
+    <mergeCell ref="I82:I93"/>
+    <mergeCell ref="J82:J93"/>
+    <mergeCell ref="K82:K93"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="H71:H81"/>
+    <mergeCell ref="H94:H105"/>
+    <mergeCell ref="I94:I105"/>
+    <mergeCell ref="J94:J105"/>
+    <mergeCell ref="K94:K105"/>
+    <mergeCell ref="B94:B105"/>
+    <mergeCell ref="C94:C105"/>
+    <mergeCell ref="D94:D105"/>
+    <mergeCell ref="E94:E105"/>
+    <mergeCell ref="G94:G105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
